--- a/src/LocationOutput.xlsx
+++ b/src/LocationOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A12912-CB14-409A-8954-B7121E6D0FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7ABFD6-BF03-41FF-8DE9-0D6498C57F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="2067">
   <si>
     <t>City</t>
   </si>
@@ -6237,36 +6237,6 @@
   </si>
   <si>
     <t>Lat/Long</t>
-  </si>
-  <si>
-    <t>City1</t>
-  </si>
-  <si>
-    <t>State1</t>
-  </si>
-  <si>
-    <t>City2</t>
-  </si>
-  <si>
-    <t>State2</t>
-  </si>
-  <si>
-    <t>City3</t>
-  </si>
-  <si>
-    <t>State3</t>
-  </si>
-  <si>
-    <t>City4</t>
-  </si>
-  <si>
-    <t>State4</t>
-  </si>
-  <si>
-    <t>City5</t>
-  </si>
-  <si>
-    <t>State5</t>
   </si>
 </sst>
 </file>
@@ -6606,16 +6576,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S509"/>
+  <dimension ref="A1:L509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G509" sqref="G509"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" bestFit="1" customWidth="1"/>
@@ -6631,7 +6601,7 @@
     <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6653,40 +6623,19 @@
       <c r="G1" t="s">
         <v>2065</v>
       </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
         <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2066</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2064</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2068</v>
-      </c>
-      <c r="C2">
-        <v>594</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -6694,140 +6643,65 @@
       <c r="F2">
         <v>47.252876800000003</v>
       </c>
-      <c r="G2">
-        <v>56.777999999999999</v>
-      </c>
-      <c r="J2">
-        <f>MIN(D:D)</f>
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>400</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2">
-        <v>47.252876800000003</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2069</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2070</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2706.1475</v>
+        <v>2900</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>32.500703700000003</v>
-      </c>
-      <c r="G3">
-        <v>87.664000000000001</v>
-      </c>
-      <c r="J3">
-        <f>_xlfn.QUARTILE.EXC(D:D,1)</f>
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3">
-        <v>2900</v>
-      </c>
-      <c r="P3">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="S3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2071</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>2072</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>778556.28960000107</v>
+        <v>780653</v>
       </c>
       <c r="D4">
-        <v>1122</v>
+        <v>1201</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>41.839786500000002</v>
-      </c>
-      <c r="G4">
-        <v>64.932000000000002</v>
-      </c>
-      <c r="J4">
-        <f>_xlfn.QUARTILE.EXC(D:D,2)</f>
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4">
-        <v>780653</v>
-      </c>
-      <c r="P4">
-        <v>1201</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2073</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>2074</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>5515.0625</v>
+        <v>5454</v>
       </c>
       <c r="D5">
         <v>17</v>
@@ -6835,47 +6709,22 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>38.040583699999999</v>
-      </c>
-      <c r="G5">
-        <v>95.774000000000001</v>
-      </c>
-      <c r="J5">
-        <f>_xlfn.QUARTILE.EXC(D:D,3)</f>
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>5454</v>
-      </c>
-      <c r="P5">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="S5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2075</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>2076</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -6883,39 +6732,14 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6">
-        <v>44.668852399999999</v>
-      </c>
-      <c r="G6">
-        <v>33.222999999999999</v>
-      </c>
-      <c r="J6">
-        <f>MAX(D:D)</f>
-        <v>54998</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6">
-        <v>250</v>
-      </c>
-      <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="S6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6937,12 +6761,8 @@
       <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="J7">
-        <f>GEOMEAN(D:D)</f>
-        <v>8.3717733541389521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -6965,7 +6785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -6988,7 +6808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -7011,7 +6831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -7034,7 +6854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -7057,7 +6877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -7080,7 +6900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -7103,7 +6923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -7126,7 +6946,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
